--- a/wikipedia_validation_sheets/Lateral medullary syndrome DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Lateral medullary syndrome DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6B2E1BFD-0FF2-0043-843E-0B5CA61FCE8E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B15E0-9707-6440-B98D-F8B65092CF03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="15440" xr2:uid="{D9DFAC0E-D9E5-4165-A533-9B6530FEE7CB}"/>
+    <workbookView xWindow="40580" yWindow="920" windowWidth="20500" windowHeight="20680" xr2:uid="{D9DFAC0E-D9E5-4165-A533-9B6530FEE7CB}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="121">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -327,9 +332,6 @@
     <t>difficulty maintaining balance</t>
   </si>
   <si>
-    <t>BRADYCARDIA</t>
-  </si>
-  <si>
     <t>slow heart rate</t>
   </si>
   <si>
@@ -337,6 +339,60 @@
   </si>
   <si>
     <t>Head Impulsive Nystagmus Test of Skew (HINTS)</t>
+  </si>
+  <si>
+    <t>dysarthria</t>
+  </si>
+  <si>
+    <t>Dysarthria</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>bradycardia, slow, heart, rate</t>
+  </si>
+  <si>
+    <t>Bradycardia</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>impulsive</t>
+  </si>
+  <si>
+    <t>Impulsive character (finding)</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>Affect, NOS</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>infarcts, infarction</t>
+  </si>
+  <si>
+    <t>Infarction</t>
+  </si>
+  <si>
+    <t>illusions</t>
+  </si>
+  <si>
+    <t>Illusions</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>Suffering</t>
+  </si>
+  <si>
+    <t>FPREAL</t>
   </si>
 </sst>
 </file>
@@ -645,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -695,6 +751,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1062,14 +1121,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6127AA57-EEFA-448E-A14C-07709EF56026}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
@@ -1080,43 +1140,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="39" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
@@ -2217,179 +2277,242 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="14" t="s">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="19" t="s">
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -2409,7 +2532,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -2427,25 +2550,187 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
       <c r="F53" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="22" t="s">
+      <c r="G53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="19" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
